--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,7 +43,7 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>useless</t>
   </si>
   <si>
     <t>disappointed</t>
@@ -58,196 +58,205 @@
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
     <t>fantastic</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>cheese</t>
+  </si>
+  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>bread</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>years</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>exactly</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>gr</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>making</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>well</t>
+    <t>dish</t>
   </si>
   <si>
     <t>recommend</t>
@@ -256,76 +265,76 @@
     <t>many</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>every</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
+    <t>last</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>job</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>product</t>
@@ -689,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,7 +709,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -758,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -776,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -800,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -808,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4716981132075472</v>
+        <v>0.575</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -826,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.967741935483871</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="L4">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -850,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -858,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4108527131782946</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -876,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.9140625</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -900,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -908,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3939393939393939</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="C6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -926,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>557</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>557</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -950,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -982,13 +991,13 @@
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8653250773993808</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L7">
-        <v>559</v>
+        <v>59</v>
       </c>
       <c r="M7">
-        <v>559</v>
+        <v>59</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1000,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1060,13 +1069,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7445887445887446</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L10">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1095,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7333333333333333</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1104,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,10 +1124,10 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1147,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7152542372881356</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L13">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="M13">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1173,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.6901408450704225</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1199,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.6883116883116883</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L15">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1216,13 +1225,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6875</v>
+        <v>0.671875</v>
       </c>
       <c r="L16">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1234,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1242,13 +1251,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.676923076923077</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1260,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1268,13 +1277,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6575342465753424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1286,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1294,13 +1303,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6573033707865169</v>
+        <v>0.64446227929374</v>
       </c>
       <c r="L19">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="M19">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1312,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1346,13 +1355,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6171428571428571</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L21">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M21">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1364,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1372,13 +1381,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6041666666666666</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1390,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1398,13 +1407,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.6031746031746031</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1416,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1424,13 +1433,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5964912280701754</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1442,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1450,13 +1459,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5897435897435898</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1468,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1476,13 +1485,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5882352941176471</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1494,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1502,13 +1511,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1520,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1528,13 +1537,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1546,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1554,13 +1563,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.5625</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1572,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1580,13 +1589,13 @@
         <v>41</v>
       </c>
       <c r="K30">
-        <v>0.5686274509803921</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1598,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1609,10 +1618,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="L31">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1624,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1632,13 +1641,13 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.5538461538461539</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1650,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1658,13 +1667,13 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>0.5526315789473685</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1676,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1684,13 +1693,13 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>0.5449101796407185</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L34">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1702,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>76</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1710,13 +1719,13 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.5416666666666666</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1728,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1762,13 +1771,13 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.5061728395061729</v>
+        <v>0.51</v>
       </c>
       <c r="L37">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M37">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1780,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1788,13 +1797,13 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>0.5060240963855421</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L38">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1806,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1814,13 +1823,13 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.5</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L39">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M39">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1832,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1840,13 +1849,13 @@
         <v>51</v>
       </c>
       <c r="K40">
-        <v>0.4918032786885246</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1858,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1866,13 +1875,13 @@
         <v>52</v>
       </c>
       <c r="K41">
-        <v>0.4736842105263158</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L41">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M41">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1884,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1892,13 +1901,13 @@
         <v>53</v>
       </c>
       <c r="K42">
-        <v>0.4473684210526316</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1910,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1918,13 +1927,13 @@
         <v>54</v>
       </c>
       <c r="K43">
-        <v>0.4337349397590362</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L43">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1936,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1944,13 +1953,13 @@
         <v>55</v>
       </c>
       <c r="K44">
-        <v>0.4264705882352941</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1962,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1970,13 +1979,13 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.4107142857142857</v>
+        <v>0.4007782101167315</v>
       </c>
       <c r="L45">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1988,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1996,13 +2005,13 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.4032258064516129</v>
+        <v>0.4</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2014,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2022,13 +2031,13 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.3833333333333334</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2040,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2048,13 +2057,13 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.3823529411764706</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L48">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M48">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2066,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2074,13 +2083,13 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.3821917808219178</v>
+        <v>0.3657534246575342</v>
       </c>
       <c r="L49">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M49">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2092,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2100,13 +2109,13 @@
         <v>61</v>
       </c>
       <c r="K50">
-        <v>0.3696498054474708</v>
+        <v>0.3525179856115108</v>
       </c>
       <c r="L50">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="M50">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2118,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>162</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2126,13 +2135,13 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <v>0.3423423423423423</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="L51">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M51">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2144,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2152,13 +2161,13 @@
         <v>63</v>
       </c>
       <c r="K52">
-        <v>0.3381294964028777</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L52">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M52">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2170,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>92</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2178,13 +2187,13 @@
         <v>64</v>
       </c>
       <c r="K53">
-        <v>0.3333333333333333</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L53">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2196,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2204,13 +2213,13 @@
         <v>65</v>
       </c>
       <c r="K54">
-        <v>0.3153153153153153</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L54">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="M54">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2222,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>76</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2230,13 +2239,13 @@
         <v>66</v>
       </c>
       <c r="K55">
-        <v>0.3069306930693069</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="L55">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2248,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2256,13 +2265,13 @@
         <v>67</v>
       </c>
       <c r="K56">
-        <v>0.3055555555555556</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L56">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="M56">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2274,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>50</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2282,13 +2291,13 @@
         <v>68</v>
       </c>
       <c r="K57">
-        <v>0.3055555555555556</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L57">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2300,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2308,13 +2317,13 @@
         <v>69</v>
       </c>
       <c r="K58">
-        <v>0.2976190476190476</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2326,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2334,25 +2343,25 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>0.2932330827067669</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L59">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M59">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2360,13 +2369,13 @@
         <v>71</v>
       </c>
       <c r="K60">
-        <v>0.2913907284768212</v>
+        <v>0.263724434876211</v>
       </c>
       <c r="L60">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="M60">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2378,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>107</v>
+        <v>684</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2386,13 +2395,13 @@
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0.271259418729817</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L61">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="M61">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2404,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>677</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2412,13 +2421,13 @@
         <v>73</v>
       </c>
       <c r="K62">
-        <v>0.2684563758389262</v>
+        <v>0.2550335570469799</v>
       </c>
       <c r="L62">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M62">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2430,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2438,13 +2447,13 @@
         <v>74</v>
       </c>
       <c r="K63">
-        <v>0.2631578947368421</v>
+        <v>0.25</v>
       </c>
       <c r="L63">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2456,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>154</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2467,22 +2476,22 @@
         <v>0.25</v>
       </c>
       <c r="L64">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M64">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N64">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2490,13 +2499,13 @@
         <v>76</v>
       </c>
       <c r="K65">
-        <v>0.2397350993377483</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L65">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="M65">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2508,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>574</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2516,25 +2525,25 @@
         <v>77</v>
       </c>
       <c r="K66">
-        <v>0.2125480153649168</v>
+        <v>0.2301790281329923</v>
       </c>
       <c r="L66">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M66">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="N66">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2542,13 +2551,13 @@
         <v>78</v>
       </c>
       <c r="K67">
-        <v>0.2075471698113208</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L67">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="M67">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2560,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>294</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2568,13 +2577,13 @@
         <v>79</v>
       </c>
       <c r="K68">
-        <v>0.2051282051282051</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L68">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="M68">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2586,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>93</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2594,25 +2603,25 @@
         <v>80</v>
       </c>
       <c r="K69">
-        <v>0.1974921630094044</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L69">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="M69">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>256</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2620,25 +2629,25 @@
         <v>81</v>
       </c>
       <c r="K70">
-        <v>0.1923076923076923</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="L70">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>105</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2646,13 +2655,13 @@
         <v>82</v>
       </c>
       <c r="K71">
-        <v>0.1890243902439024</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L71">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M71">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2664,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2672,25 +2681,25 @@
         <v>83</v>
       </c>
       <c r="K72">
-        <v>0.1718377088305489</v>
+        <v>0.1814814814814815</v>
       </c>
       <c r="L72">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="M72">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>347</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2698,13 +2707,13 @@
         <v>84</v>
       </c>
       <c r="K73">
-        <v>0.1697416974169742</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L73">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M73">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2716,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>225</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2724,13 +2733,13 @@
         <v>85</v>
       </c>
       <c r="K74">
-        <v>0.1644736842105263</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L74">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="M74">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2742,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>381</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2750,25 +2759,25 @@
         <v>86</v>
       </c>
       <c r="K75">
-        <v>0.1571753986332574</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L75">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M75">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N75">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2776,25 +2785,25 @@
         <v>87</v>
       </c>
       <c r="K76">
-        <v>0.155</v>
+        <v>0.1638418079096045</v>
       </c>
       <c r="L76">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M76">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N76">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2802,22 +2811,22 @@
         <v>88</v>
       </c>
       <c r="K77">
-        <v>0.1484184914841849</v>
+        <v>0.1626794258373206</v>
       </c>
       <c r="L77">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M77">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
         <v>350</v>
@@ -2828,13 +2837,13 @@
         <v>89</v>
       </c>
       <c r="K78">
-        <v>0.1468926553672316</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="L78">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2846,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2854,13 +2863,13 @@
         <v>90</v>
       </c>
       <c r="K79">
-        <v>0.1444444444444444</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L79">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M79">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2872,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>231</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2880,25 +2889,25 @@
         <v>91</v>
       </c>
       <c r="K80">
-        <v>0.1443298969072165</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L80">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M80">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>249</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2906,13 +2915,13 @@
         <v>92</v>
       </c>
       <c r="K81">
-        <v>0.1370967741935484</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="L81">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="M81">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -2924,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>214</v>
+        <v>378</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2932,13 +2941,13 @@
         <v>93</v>
       </c>
       <c r="K82">
-        <v>0.1260504201680672</v>
+        <v>0.137037037037037</v>
       </c>
       <c r="L82">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M82">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -2950,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -2958,25 +2967,25 @@
         <v>94</v>
       </c>
       <c r="K83">
-        <v>0.1111111111111111</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="L83">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M83">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N83">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -2984,25 +2993,25 @@
         <v>95</v>
       </c>
       <c r="K84">
-        <v>0.09176029962546817</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L84">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="M84">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="N84">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>970</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3010,13 +3019,13 @@
         <v>96</v>
       </c>
       <c r="K85">
-        <v>0.09016393442622951</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="L85">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M85">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3028,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>333</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3036,25 +3045,25 @@
         <v>97</v>
       </c>
       <c r="K86">
-        <v>0.08751793400286945</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="L86">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="M86">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="N86">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O86">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>636</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3062,25 +3071,25 @@
         <v>98</v>
       </c>
       <c r="K87">
-        <v>0.08088235294117647</v>
+        <v>0.1063218390804598</v>
       </c>
       <c r="L87">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="M87">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="N87">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q87">
-        <v>250</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3088,25 +3097,25 @@
         <v>99</v>
       </c>
       <c r="K88">
-        <v>0.07393715341959335</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L88">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M88">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N88">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>501</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3114,25 +3123,25 @@
         <v>100</v>
       </c>
       <c r="K89">
-        <v>0.0673076923076923</v>
+        <v>0.0896358543417367</v>
       </c>
       <c r="L89">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="M89">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="N89">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O89">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>485</v>
+        <v>975</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3140,25 +3149,25 @@
         <v>101</v>
       </c>
       <c r="K90">
-        <v>0.06537530266343826</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L90">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M90">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N90">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>386</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="10:17">
@@ -3166,13 +3175,13 @@
         <v>102</v>
       </c>
       <c r="K91">
-        <v>0.06345177664974619</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="L91">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M91">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3184,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3192,25 +3201,25 @@
         <v>103</v>
       </c>
       <c r="K92">
-        <v>0.05714285714285714</v>
+        <v>0.07592592592592592</v>
       </c>
       <c r="L92">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="M92">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="N92">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O92">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>1089</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3218,25 +3227,103 @@
         <v>104</v>
       </c>
       <c r="K93">
-        <v>0.03407601572739188</v>
+        <v>0.06147186147186147</v>
       </c>
       <c r="L93">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="M93">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N93">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="O93">
-        <v>0.13</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>737</v>
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K94">
+        <v>0.0558252427184466</v>
+      </c>
+      <c r="L94">
+        <v>23</v>
+      </c>
+      <c r="M94">
+        <v>25</v>
+      </c>
+      <c r="N94">
+        <v>0.92</v>
+      </c>
+      <c r="O94">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K95">
+        <v>0.05172413793103448</v>
+      </c>
+      <c r="L95">
+        <v>27</v>
+      </c>
+      <c r="M95">
+        <v>27</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K96">
+        <v>0.03034300791556728</v>
+      </c>
+      <c r="L96">
+        <v>23</v>
+      </c>
+      <c r="M96">
+        <v>32</v>
+      </c>
+      <c r="N96">
+        <v>0.72</v>
+      </c>
+      <c r="O96">
+        <v>0.28</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
